--- a/biology/Histoire de la zoologie et de la botanique/Hippolyte_Lucas_(entomologiste)/Hippolyte_Lucas_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hippolyte_Lucas_(entomologiste)/Hippolyte_Lucas_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Hippolyte Lucas, né à Paris le 17 janvier 1815 et mort dans le canton de Genève le 5 juillet 1899[1], est un entomologiste français. C'est le frère de Prosper Lucas.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Hippolyte Lucas, né à Paris le 17 janvier 1815 et mort dans le canton de Genève le 5 juillet 1899, est un entomologiste français. C'est le frère de Prosper Lucas.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est aide-naturaliste puis assistant au Muséum national d'histoire naturelle. Il participe, de 1839 à 1842, à la Commission scientifique pour l'exploration  de l'Algérie et s'occupe, à ce titre, de la faune de ce pays.
 </t>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire naturelle des Lépidoptères d'Europe, gravures peintes par Alexis Nicolas Noël, Paris : chez Pauquet et chez L. Debure, 1834 (lire en ligne)
 Des papillons : Vade-mecum du lépidoptérologiste, Paris : Bureau de souscription du "Dictionnaire pittoresque d'histoire naturelle", 1838 (lire en ligne)
